--- a/data/trans_dic/P70B_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P70B_R-Provincia-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>91,9; 98,28</t>
+          <t>91,77; 98,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>91,52; 97,73</t>
+          <t>91,88; 97,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>93,26; 97,63</t>
+          <t>93,2; 97,61</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>68,34; 83,28</t>
+          <t>68,03; 82,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>69,21; 82,37</t>
+          <t>69,11; 82,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>70,77; 81,33</t>
+          <t>70,84; 81,01</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>63,23; 78,01</t>
+          <t>63,14; 77,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>65,65; 80,02</t>
+          <t>66,23; 80,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>66,61; 76,83</t>
+          <t>66,79; 77,21</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>71,51; 88,38</t>
+          <t>71,29; 88,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>76,58; 88,35</t>
+          <t>76,0; 88,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>76,36; 86,33</t>
+          <t>76,35; 86,54</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>91,71; 98,11</t>
+          <t>91,7; 98,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>92,94; 98,98</t>
+          <t>92,91; 98,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>94,0; 98,14</t>
+          <t>94,14; 98,14</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>64,56; 79,04</t>
+          <t>63,87; 78,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>66,69; 82,67</t>
+          <t>66,21; 82,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>67,2; 78,44</t>
+          <t>68,15; 78,63</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>80,33; 89,13</t>
+          <t>80,87; 89,52</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>84,77; 91,18</t>
+          <t>85,41; 91,33</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>84,08; 89,37</t>
+          <t>84,28; 89,39</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>90,92; 96,21</t>
+          <t>90,68; 96,05</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>79,88; 90,42</t>
+          <t>79,03; 89,88</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>87,53; 93,04</t>
+          <t>87,37; 92,95</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>83,51; 87,52</t>
+          <t>83,41; 87,61</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>82,94; 87,01</t>
+          <t>82,81; 86,93</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>83,96; 86,64</t>
+          <t>83,86; 86,64</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P70B_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P70B_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>91,77; 98,47</t>
+          <t>91,9; 98,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>91,88; 97,77</t>
+          <t>91,52; 97,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>93,2; 97,61</t>
+          <t>93,26; 97,63</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>68,03; 82,95</t>
+          <t>68,34; 83,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>69,11; 82,11</t>
+          <t>69,21; 82,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>70,84; 81,01</t>
+          <t>70,77; 81,33</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>63,14; 77,7</t>
+          <t>63,23; 78,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>66,23; 80,68</t>
+          <t>65,65; 80,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>66,79; 77,21</t>
+          <t>66,61; 76,83</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>71,29; 88,07</t>
+          <t>71,51; 88,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>76,0; 88,14</t>
+          <t>76,58; 88,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>76,35; 86,54</t>
+          <t>76,36; 86,33</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>91,7; 98,2</t>
+          <t>91,71; 98,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>92,91; 98,9</t>
+          <t>92,94; 98,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>94,14; 98,14</t>
+          <t>94,0; 98,14</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>63,87; 78,18</t>
+          <t>64,56; 79,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>66,21; 82,53</t>
+          <t>66,69; 82,67</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>68,15; 78,63</t>
+          <t>67,2; 78,44</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>80,87; 89,52</t>
+          <t>80,33; 89,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>85,41; 91,33</t>
+          <t>84,77; 91,18</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>84,28; 89,39</t>
+          <t>84,08; 89,37</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>90,68; 96,05</t>
+          <t>90,92; 96,21</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>79,03; 89,88</t>
+          <t>79,88; 90,42</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>87,37; 92,95</t>
+          <t>87,53; 93,04</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>83,41; 87,61</t>
+          <t>83,51; 87,52</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>82,81; 86,93</t>
+          <t>82,94; 87,01</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>83,86; 86,64</t>
+          <t>83,96; 86,64</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P70B_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P70B_R-Provincia-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>96,31%</t>
+          <t>96,22%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>95,61%</t>
+          <t>95,55%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>95,99%</t>
+          <t>95,93%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>91,9; 98,28</t>
+          <t>91,42; 98,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>91,52; 97,73</t>
+          <t>91,14; 97,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>93,26; 97,63</t>
+          <t>92,89; 97,67</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>76,23%</t>
+          <t>75,36%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>76,61%</t>
+          <t>76,57%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>76,39%</t>
+          <t>75,86%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>68,34; 83,28</t>
+          <t>66,76; 82,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>69,21; 82,37</t>
+          <t>69,13; 82,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>70,77; 81,33</t>
+          <t>70,01; 81,08</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>70,94%</t>
+          <t>71,05%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>73,83%</t>
+          <t>73,87%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>72,27%</t>
+          <t>72,31%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>63,23; 78,01</t>
+          <t>63,32; 78,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>65,65; 80,02</t>
+          <t>65,68; 80,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>66,61; 76,83</t>
+          <t>66,64; 76,86</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>80,63%</t>
+          <t>81,13%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>83,19%</t>
+          <t>88,43%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>81,98%</t>
+          <t>85,55%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>71,51; 88,38</t>
+          <t>71,96; 88,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>76,58; 88,35</t>
+          <t>80,35; 94,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>76,36; 86,33</t>
+          <t>79,3; 91,69</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>95,9%</t>
+          <t>95,89%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>97,09%</t>
+          <t>97,16%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>96,48%</t>
+          <t>96,51%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>91,71; 98,11</t>
+          <t>91,71; 98,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>92,94; 98,98</t>
+          <t>93,32; 98,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>94,0; 98,14</t>
+          <t>94,08; 98,1</t>
         </is>
       </c>
     </row>
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>71,81%</t>
+          <t>71,76%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>74,89%</t>
+          <t>74,95%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>73,05%</t>
+          <t>73,01%</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>64,56; 79,04</t>
+          <t>64,68; 79,03</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>66,69; 82,67</t>
+          <t>66,79; 82,71</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>67,2; 78,44</t>
+          <t>67,21; 78,54</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>85,41%</t>
+          <t>85,6%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>88,44%</t>
+          <t>88,41%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>86,9%</t>
+          <t>86,94%</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>80,33; 89,13</t>
+          <t>80,31; 89,39</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>84,77; 91,18</t>
+          <t>84,74; 91,15</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>84,08; 89,37</t>
+          <t>84,17; 89,46</t>
         </is>
       </c>
     </row>
@@ -906,17 +906,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>93,7%</t>
+          <t>95,73%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>86,15%</t>
+          <t>86,35%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>90,73%</t>
+          <t>92,9%</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>90,92; 96,21</t>
+          <t>91,92; 98,53</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>79,88; 90,42</t>
+          <t>80,53; 90,44</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>87,53; 93,04</t>
+          <t>89,34; 96,86</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>85,5%</t>
+          <t>86,8%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>85,09%</t>
+          <t>86,03%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>85,31%</t>
+          <t>86,47%</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>83,51; 87,52</t>
+          <t>84,13; 91,6</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>82,94; 87,01</t>
+          <t>84,15; 88,58</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>83,96; 86,64</t>
+          <t>84,72; 89,4</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P70B_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P70B_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +547,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +580,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>91,42; 98,33</t>
+          <t>91,7; 98,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>91,14; 97,75</t>
+          <t>90,97; 97,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>92,89; 97,67</t>
+          <t>93,16; 97,67</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +630,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>66,76; 82,68</t>
+          <t>66,34; 82,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>69,13; 82,26</t>
+          <t>69,87; 81,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>70,01; 81,08</t>
+          <t>69,6; 80,71</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>63,32; 78,11</t>
+          <t>63,94; 78,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>65,68; 80,04</t>
+          <t>66,91; 80,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>66,64; 76,86</t>
+          <t>67,04; 77,18</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>71,96; 88,72</t>
+          <t>71,73; 87,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>80,35; 94,96</t>
+          <t>80,65; 95,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>79,3; 91,69</t>
+          <t>79,1; 91,81</t>
         </is>
       </c>
     </row>
@@ -779,24 +780,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>91,71; 98,07</t>
+          <t>91,79; 98,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>93,32; 98,95</t>
+          <t>93,08; 98,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>94,08; 98,1</t>
+          <t>94,07; 98,01</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -829,24 +830,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>64,68; 79,03</t>
+          <t>63,59; 78,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>66,79; 82,71</t>
+          <t>66,33; 82,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>67,21; 78,54</t>
+          <t>67,09; 77,99</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>80,31; 89,39</t>
+          <t>80,85; 89,41</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>84,74; 91,15</t>
+          <t>85,43; 91,22</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>84,17; 89,46</t>
+          <t>84,0; 89,4</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>91,92; 98,53</t>
+          <t>91,89; 98,63</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>80,53; 90,44</t>
+          <t>79,06; 89,93</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>89,34; 96,86</t>
+          <t>89,21; 96,76</t>
         </is>
       </c>
     </row>
@@ -979,17 +980,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>84,13; 91,6</t>
+          <t>84,17; 90,95</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>84,15; 88,58</t>
+          <t>83,89; 88,28</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>84,72; 89,4</t>
+          <t>84,78; 89,35</t>
         </is>
       </c>
     </row>
@@ -1015,4 +1016,758 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que concilia su vida profesional y laboral</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>438</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>186853</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>137910</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>324763</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>178086; 191250</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>131303; 140841</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>315388; 330639</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>180575</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>127946</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>308521</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>158948; 198623</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>116746; 136813</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>283066; 328246</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>105633</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>89282</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>194914</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>95071; 116604</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>80870; 97320</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>180712; 208033</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>136696</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>227960</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>364655</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>120856; 147268</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>207891; 245598</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>337199; 391361</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>395</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>108892</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>104072</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>212964</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>104234; 111532</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>99699; 105956</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>207584; 216277</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>96924</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>64762</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>161686</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>85880; 106221</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>57306; 71104</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>148573; 172720</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>663</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>287187</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>270857</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>558044</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>271242; 299945</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>261731; 279474</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>539189; 573824</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>359</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>689</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>601526</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>234879</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>836405</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>577364; 619746</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>215041; 244610</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>803156; 871124</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>1442</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>1755</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>3197</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>1704284</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>1257670</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>2961954</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>1652582; 1785734</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>1226398; 1290624</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>2904039; 3060596</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>